--- a/certification/src/test/resources/testdata/tutorialsninja.xlsx
+++ b/certification/src/test/resources/testdata/tutorialsninja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8940" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Search Data Iphone</t>
   </si>
@@ -84,9 +84,6 @@
     <t>EsTax</t>
   </si>
   <si>
-    <t xml:space="preserve">iPhone </t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Ex Tax: $101.00</t>
   </si>
   <si>
-    <t xml:space="preserve">MacBook Air </t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -126,7 +120,7 @@
     <t>$3,852.40</t>
   </si>
   <si>
-    <t>dddewdew</t>
+    <t>NegativeData</t>
   </si>
 </sst>
 </file>
@@ -134,11 +128,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,16 +144,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,68 +181,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,8 +203,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -263,7 +235,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,22 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,11 +490,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +546,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -531,17 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,45 +587,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,130 +610,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,7 +1164,7 @@
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1199,30 +1193,30 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1250,19 +1244,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1273,13 +1267,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/certification/src/test/resources/testdata/tutorialsninja.xlsx
+++ b/certification/src/test/resources/testdata/tutorialsninja.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8970" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="demoSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="particularProductValidation" sheetId="2" r:id="rId2"/>
+    <sheet name="cartValidation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -33,13 +33,13 @@
     <t>Total price</t>
   </si>
   <si>
-    <t>iPhoneProductDescription</t>
-  </si>
-  <si>
-    <t>macBookairDescription</t>
-  </si>
-  <si>
-    <t>noOfIphone</t>
+    <t>IPhoneProductDescription</t>
+  </si>
+  <si>
+    <t>MacBookairDescription</t>
+  </si>
+  <si>
+    <t>NoOfIphone</t>
   </si>
   <si>
     <t>No of mac</t>
@@ -66,16 +66,13 @@
     <t xml:space="preserve">MacBook Air is ultrathin, ultraportable, </t>
   </si>
   <si>
-    <t>x 2</t>
-  </si>
-  <si>
     <t>x 3</t>
   </si>
   <si>
     <t>Product</t>
   </si>
   <si>
-    <t>productQuantity</t>
+    <t>ProductQuantity</t>
   </si>
   <si>
     <t>ProducrtPrice</t>
@@ -102,10 +99,10 @@
     <t>Ex Tax: $1,000.00</t>
   </si>
   <si>
-    <t>Iphone in Cart</t>
-  </si>
-  <si>
-    <t>mac In Cart</t>
+    <t>Iphone In Cart</t>
+  </si>
+  <si>
+    <t>Mac In Cart</t>
   </si>
   <si>
     <t>Totalmount</t>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>$3,852.40</t>
+  </si>
+  <si>
+    <t>$246.40</t>
   </si>
   <si>
     <t>NegativeData</t>
@@ -128,11 +128,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,6 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -151,7 +158,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,128 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,17 +490,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,11 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,11 +557,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,23 +567,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,154 +592,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1133,7 +1136,7 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>602</v>
       </c>
       <c r="F2" t="s">
@@ -1142,13 +1145,11 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2"/>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>3852.4</v>
       </c>
     </row>
@@ -1164,7 +1165,7 @@
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1179,44 +1180,44 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1244,32 +1245,32 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
